--- a/input files/L03C/L03C-Mapping.xlsx
+++ b/input files/L03C/L03C-Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\sample files\L03C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L03C\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>h2_SEO1_Header</t>
-  </si>
-  <si>
     <t>Destination_MB_Heading</t>
   </si>
   <si>
@@ -327,6 +324,21 @@
   </si>
   <si>
     <t>OG_Meta_Image</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>h_cat</t>
+  </si>
+  <si>
+    <t>hotel_cat</t>
+  </si>
+  <si>
+    <t>LP_URL</t>
+  </si>
+  <si>
+    <t>m_Meta_Url</t>
   </si>
 </sst>
 </file>
@@ -787,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,22 +824,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
+      <c r="A2" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>31</v>
@@ -835,131 +847,131 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>91</v>
+      <c r="A6" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>92</v>
+      <c r="A7" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
@@ -967,10 +979,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>35</v>
@@ -978,21 +990,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1000,197 +1012,197 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>35</v>
@@ -1198,21 +1210,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>35</v>
@@ -1220,21 +1232,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>35</v>
@@ -1242,21 +1254,21 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>35</v>
@@ -1264,10 +1276,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>35</v>
@@ -1275,10 +1287,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>35</v>
@@ -1286,12 +1298,34 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>35</v>
       </c>
     </row>
